--- a/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
+++ b/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
@@ -146,7 +146,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF4F5F9"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,11 +160,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFD9DADC"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -186,11 +192,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -502,15 +508,16 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="20.75" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
     <col min="7" max="7" width="19.875" customWidth="1"/>
     <col min="8" max="8" width="17.5" customWidth="1"/>
@@ -520,6 +527,7 @@
     <col min="12" max="12" width="11.375" customWidth="1"/>
     <col min="13" max="13" width="11" customWidth="1"/>
     <col min="14" max="14" width="11.875" customWidth="1"/>
+    <col min="15" max="15" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -541,35 +549,35 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="7" t="s">
@@ -584,7 +592,7 @@
       <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="6" t="s">
         <v>15</v>
       </c>
     </row>

--- a/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
+++ b/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2745" windowWidth="27450" windowHeight="10650"/>
+    <workbookView xWindow="0" yWindow="2745" windowWidth="27450" windowHeight="10650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>商品订单记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,9 +189,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -200,6 +197,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -531,68 +531,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -611,12 +611,101 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="15.75" customWidth="1"/>
+    <col min="11" max="11" width="14.375" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="11.125" customWidth="1"/>
+    <col min="14" max="14" width="12.75" customWidth="1"/>
+    <col min="15" max="15" width="13.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
+++ b/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2745" windowWidth="27450" windowHeight="10650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2745" windowWidth="27450" windowHeight="10650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -507,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
@@ -613,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>

--- a/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
+++ b/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16828"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2745" windowWidth="27450" windowHeight="10650"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>商品订单记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,12 +74,16 @@
   </si>
   <si>
     <t>渠道</t>
+  </si>
+  <si>
+    <t>红包金额（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,7 +265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,9 +298,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,6 +350,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -505,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -519,18 +557,18 @@
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="20.75" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="7" width="19.875" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="12.5" customWidth="1"/>
-    <col min="10" max="10" width="16.125" customWidth="1"/>
-    <col min="11" max="11" width="10.625" customWidth="1"/>
-    <col min="12" max="12" width="11.375" customWidth="1"/>
-    <col min="13" max="13" width="11" customWidth="1"/>
-    <col min="14" max="14" width="11.875" customWidth="1"/>
-    <col min="15" max="15" width="11.625" customWidth="1"/>
+    <col min="7" max="8" width="19.875" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="16.125" customWidth="1"/>
+    <col min="12" max="12" width="10.625" customWidth="1"/>
+    <col min="13" max="13" width="11.375" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="16" max="16" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -548,8 +586,9 @@
       <c r="M1" s="7"/>
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
     </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -572,36 +611,40 @@
         <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
       <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
+++ b/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2745" windowWidth="27450" windowHeight="10650"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>商品订单记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,13 +77,17 @@
   </si>
   <si>
     <t>红包金额（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>促销券（元）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,7 +227,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -298,23 +302,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -350,23 +337,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -545,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -614,7 +584,7 @@
         <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>9</v>

--- a/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
+++ b/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>商品订单记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,11 +76,19 @@
     <t>渠道</t>
   </si>
   <si>
-    <t>红包金额（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>促销券（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台红包金额(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户红包金额（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>促销券类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -527,18 +535,18 @@
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="20.75" customWidth="1"/>
     <col min="6" max="6" width="19.375" customWidth="1"/>
-    <col min="7" max="8" width="19.875" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
-    <col min="12" max="12" width="10.625" customWidth="1"/>
-    <col min="13" max="13" width="11.375" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="11.875" customWidth="1"/>
-    <col min="16" max="16" width="11.625" customWidth="1"/>
+    <col min="7" max="9" width="19.875" customWidth="1"/>
+    <col min="10" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
+    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="14" max="14" width="10.625" customWidth="1"/>
+    <col min="15" max="15" width="11.375" customWidth="1"/>
+    <col min="16" max="16" width="11" customWidth="1"/>
+    <col min="17" max="17" width="11.875" customWidth="1"/>
+    <col min="18" max="18" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -557,8 +565,10 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -581,40 +591,47 @@
         <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="O2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="14.25" x14ac:dyDescent="0.15">
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
+++ b/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2745" windowWidth="27450" windowHeight="10650"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>商品订单记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,13 +77,29 @@
   </si>
   <si>
     <t>红包金额（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买终端</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,7 +239,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -298,23 +314,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -350,23 +349,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -543,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -560,15 +542,15 @@
     <col min="7" max="8" width="19.875" customWidth="1"/>
     <col min="9" max="9" width="17.5" customWidth="1"/>
     <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
-    <col min="12" max="12" width="10.625" customWidth="1"/>
-    <col min="13" max="13" width="11.375" customWidth="1"/>
-    <col min="14" max="14" width="11" customWidth="1"/>
-    <col min="15" max="15" width="11.875" customWidth="1"/>
-    <col min="16" max="16" width="11.625" customWidth="1"/>
+    <col min="11" max="13" width="16.125" customWidth="1"/>
+    <col min="14" max="15" width="10.625" customWidth="1"/>
+    <col min="16" max="16" width="11.375" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="11.875" customWidth="1"/>
+    <col min="19" max="19" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -587,8 +569,11 @@
       <c r="N1" s="7"/>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -622,29 +607,38 @@
       <c r="K2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
+++ b/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="28">
   <si>
     <t>商品订单记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,34 @@
   </si>
   <si>
     <t>购买终端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易流水号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -546,11 +574,11 @@
     <col min="14" max="15" width="10.625" customWidth="1"/>
     <col min="16" max="16" width="11.375" customWidth="1"/>
     <col min="17" max="17" width="11" customWidth="1"/>
-    <col min="18" max="18" width="11.875" customWidth="1"/>
-    <col min="19" max="19" width="11.625" customWidth="1"/>
+    <col min="18" max="25" width="11.875" customWidth="1"/>
+    <col min="26" max="26" width="11.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:26" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -572,8 +600,15 @@
       <c r="Q1" s="7"/>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -629,16 +664,37 @@
         <v>14</v>
       </c>
       <c r="S2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:26" ht="14.25" x14ac:dyDescent="0.15">
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A1:Z1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
+++ b/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2745" windowWidth="20730" windowHeight="10650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2745" windowWidth="20730" windowHeight="10650"/>
   </bookViews>
   <sheets>
     <sheet name="订单" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -793,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
+++ b/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2745" windowWidth="20730" windowHeight="10650"/>
@@ -11,12 +11,12 @@
     <sheet name="订单商品" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>商品订单记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,14 +162,22 @@
   </si>
   <si>
     <t>商户红包金额（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满减活动（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -357,7 +365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,10 +397,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -424,7 +431,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -600,14 +606,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20.5" customWidth="1" collapsed="1"/>
@@ -621,17 +627,19 @@
     <col min="10" max="10" width="17.5" customWidth="1"/>
     <col min="11" max="11" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.625" customWidth="1"/>
-    <col min="15" max="15" width="11.375" customWidth="1" collapsed="1"/>
-    <col min="16" max="18" width="11.375" customWidth="1"/>
-    <col min="19" max="19" width="11" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.875" customWidth="1" collapsed="1"/>
-    <col min="21" max="27" width="11.875" customWidth="1"/>
-    <col min="28" max="28" width="11.625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="10.625" customWidth="1"/>
+    <col min="17" max="17" width="11.375" customWidth="1" collapsed="1"/>
+    <col min="18" max="20" width="11.375" customWidth="1"/>
+    <col min="21" max="21" width="11" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11.875" customWidth="1" collapsed="1"/>
+    <col min="23" max="29" width="11.875" customWidth="1"/>
+    <col min="30" max="30" width="11.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:30" ht="48.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -662,8 +670,10 @@
       <c r="Z1" s="9"/>
       <c r="AA1" s="9"/>
       <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
     </row>
-    <row r="2" spans="1:28" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:30" s="1" customFormat="1" ht="34.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -698,58 +708,64 @@
         <v>8</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="O2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="AD2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:30" ht="14.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -778,10 +794,12 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
       <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="A1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -790,14 +808,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
@@ -808,7 +826,7 @@
     <col min="8" max="9" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="22.5">
       <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
@@ -821,7 +839,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -863,12 +881,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
+++ b/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2745" windowWidth="20730" windowHeight="10650"/>
@@ -169,15 +169,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>活动类型</t>
+    <t>满减活动类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -365,7 +365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -397,9 +397,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -431,6 +432,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -606,14 +608,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.625" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20.5" customWidth="1" collapsed="1"/>
@@ -627,7 +629,7 @@
     <col min="10" max="10" width="17.5" customWidth="1"/>
     <col min="11" max="11" width="11.875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.875" customWidth="1"/>
     <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.125" customWidth="1" collapsed="1"/>
     <col min="16" max="16" width="10.625" customWidth="1"/>
@@ -639,7 +641,7 @@
     <col min="30" max="30" width="11.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="48.75" customHeight="1">
+    <row r="1" spans="1:30" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -673,7 +675,7 @@
       <c r="AC1" s="9"/>
       <c r="AD1" s="9"/>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" ht="34.5" customHeight="1">
+    <row r="2" spans="1:30" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -765,7 +767,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="14.25">
+    <row r="3" spans="1:30" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -808,14 +810,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
@@ -826,7 +828,7 @@
     <col min="8" max="9" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5">
+    <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>20</v>
       </c>
@@ -839,7 +841,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -881,12 +883,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
+++ b/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>商品订单记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,116 +60,121 @@
     <t>订单状态</t>
   </si>
   <si>
+    <t>下单时间</t>
+  </si>
+  <si>
+    <t>渠道</t>
+  </si>
+  <si>
+    <t>商品编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>促销券类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>促销券（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单商品记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>店铺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买终端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>团状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>付款时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发货时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易流水号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台红包金额(元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商户红包金额（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满减活动（元）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满减活动类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>支付方式</t>
-  </si>
-  <si>
-    <t>下单时间</t>
-  </si>
-  <si>
-    <t>渠道</t>
-  </si>
-  <si>
-    <t>商品编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>促销券类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>促销券（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单商品记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>店铺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>购买终端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>团状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>付款时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发货时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易流水号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品分类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台红包金额(元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商户红包金额（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满减活动（元）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>满减活动类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送方式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD3"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -636,12 +641,13 @@
     <col min="17" max="17" width="11.375" customWidth="1" collapsed="1"/>
     <col min="18" max="20" width="11.375" customWidth="1"/>
     <col min="21" max="21" width="11" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.875" customWidth="1" collapsed="1"/>
-    <col min="23" max="29" width="11.875" customWidth="1"/>
-    <col min="30" max="30" width="11.625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="11" customWidth="1"/>
+    <col min="23" max="23" width="11.875" customWidth="1" collapsed="1"/>
+    <col min="24" max="30" width="11.875" customWidth="1"/>
+    <col min="31" max="31" width="11.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -674,8 +680,9 @@
       <c r="AB1" s="9"/>
       <c r="AC1" s="9"/>
       <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
     </row>
-    <row r="2" spans="1:30" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -695,25 +702,25 @@
         <v>6</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>7</v>
@@ -722,52 +729,55 @@
         <v>9</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="S2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="X2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="V2" s="4" t="s">
+      <c r="Y2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="W2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="X2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:30" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -798,10 +808,11 @@
       <c r="AB3" s="7"/>
       <c r="AC3" s="7"/>
       <c r="AD3" s="7"/>
+      <c r="AE3" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:AD1"/>
+    <mergeCell ref="A1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -811,10 +822,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -826,11 +837,16 @@
     <col min="6" max="6" width="12.125" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="18.75" customWidth="1" collapsed="1"/>
     <col min="8" max="9" width="18.75" customWidth="1"/>
+    <col min="11" max="11" width="10.25" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="22.5" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -841,7 +857,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -849,28 +865,43 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>16</v>
+      <c r="K2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
+++ b/easy-trade/easy-tms/src/main/webapp/excel/OsmOrderExcel.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2745" windowWidth="20730" windowHeight="10650"/>
+    <workbookView xWindow="0" yWindow="2745" windowWidth="20730" windowHeight="10650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="订单" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>商品订单记录</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,14 +175,22 @@
   </si>
   <si>
     <t>配送方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系电话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,7 +378,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -402,10 +410,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -437,7 +444,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -613,14 +619,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" style="2" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20.5" customWidth="1" collapsed="1"/>
@@ -647,7 +653,7 @@
     <col min="31" max="31" width="11.625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:31" ht="48.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -682,7 +688,7 @@
       <c r="AD1" s="9"/>
       <c r="AE1" s="9"/>
     </row>
-    <row r="2" spans="1:31" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:31" s="1" customFormat="1" ht="34.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -777,7 +783,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31" ht="14.25">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -821,14 +827,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="20" customWidth="1" collapsed="1"/>
@@ -842,9 +848,10 @@
     <col min="13" max="13" width="14" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="15.125" customWidth="1"/>
+    <col min="16" max="18" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="22.5">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
@@ -857,7 +864,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
     </row>
-    <row r="2" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="18.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -902,6 +909,15 @@
       </c>
       <c r="O2" s="8" t="s">
         <v>28</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -914,12 +930,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
